--- a/Mission Architecture Lists.xlsx
+++ b/Mission Architecture Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdepaor2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdepaor2\Desktop\PhD\ORG\Newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D939BEB-466B-4132-B814-9B449EB3DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E808D-6EED-412A-8258-9F67DE46984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1860" windowWidth="21600" windowHeight="12585" xr2:uid="{C6C43418-CEBB-4F29-8415-EDAA6EBE5C30}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{C6C43418-CEBB-4F29-8415-EDAA6EBE5C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -165,14 +165,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E825FE-8B9A-4A5B-9866-3BB2254B5F27}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,147 +501,147 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f>COUNTA(C4:C11)-1+COUNTA(C4:C11)^2+COUNTA(C4:C11)^3+COUNTA(C4:C11)^4+COUNTA(C4:C11)^5+COUNTA(C4:C11)^6+(COUNTA(C4:C11)-1)^7</f>
         <v>7646</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>C12*COUNTA(D4:D11)</f>
         <v>15292</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>D12*COUNTA(E4:E11)</f>
         <v>45876</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>E12*COUNTA(F4:F11)</f>
         <v>137628</v>
       </c>
